--- a/output.xlsx
+++ b/output.xlsx
@@ -12,45 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>stud_name</t>
+    <t>num1</t>
   </si>
   <si>
-    <t>stud_age</t>
+    <t>operation</t>
   </si>
   <si>
-    <t>salary</t>
+    <t>num2</t>
   </si>
   <si>
-    <t/>
+    <t>endd</t>
   </si>
   <si>
-    <t>19</t>
+    <t>10.0</t>
   </si>
   <si>
-    <t>1000000</t>
+    <t>*</t>
   </si>
   <si>
-    <t>1200000</t>
+    <t>5.0</t>
   </si>
   <si>
-    <t>fdgfd</t>
+    <t>50.0</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2.0</t>
   </si>
   <si>
-    <t>Artur</t>
+    <t>pow</t>
   </si>
   <si>
-    <t>10000000</t>
+    <t>8.0</t>
   </si>
   <si>
-    <t>petya</t>
-  </si>
-  <si>
-    <t>senya</t>
+    <t>256.0</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,71 +137,36 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
+      <c r="D3" t="s" s="1">
         <v>11</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
